--- a/group.xlsx
+++ b/group.xlsx
@@ -275,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -287,6 +287,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G34"/>
+  <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,9 +604,11 @@
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -618,52 +624,48 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
@@ -673,8 +675,15 @@
       <c r="G7" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -688,7 +697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -702,7 +711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -716,7 +725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
@@ -724,7 +733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
@@ -735,7 +744,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
@@ -743,7 +752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
@@ -751,7 +760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
